--- a/bin/Debug/Test.xlsx
+++ b/bin/Debug/Test.xlsx
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -481,40 +481,39 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>164</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
